--- a/仕様書/Masterの仕様書/NPC・エネミー.xlsx
+++ b/仕様書/Masterの仕様書/NPC・エネミー.xlsx
@@ -19,56 +19,213 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>鮫の仕様</t>
-    <rPh sb="0" eb="1">
-      <t>サメ</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>馬の仕様（新動物）</t>
+    <rPh sb="0" eb="1">
+      <t>ウマ</t>
     </rPh>
     <rPh sb="2" eb="4">
       <t>シヨウ</t>
     </rPh>
+    <rPh sb="5" eb="6">
+      <t>シン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ドウブツ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>イノシシ（闘牛）</t>
+    <t>馬は乱入系の登場の仕方をする</t>
+    <rPh sb="0" eb="1">
+      <t>ウマ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ランニュウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>トウジョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シカタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>馬は店の中に入りプレイヤーと接触していない状態では豚や牛と同じ動きになる</t>
+    <rPh sb="0" eb="1">
+      <t>ウマ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ミセ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>セッショク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ブタ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ウシ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イノシシ（闘牛）は闘牛の動きを入れてね</t>
     <rPh sb="5" eb="7">
       <t>トウギュウ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>羊（豚）</t>
+    <rPh sb="9" eb="11">
+      <t>トウギュウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>羊（豚）は豚の動きを入れてね</t>
     <rPh sb="0" eb="1">
       <t>ヒツジ</t>
     </rPh>
     <rPh sb="2" eb="3">
       <t>ブタ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ヤギ（牛）</t>
+    <rPh sb="5" eb="6">
+      <t>ブタ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ヤギ（牛）はｒｙ</t>
     <rPh sb="3" eb="4">
       <t>ウシ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>トナカイ（闘牛）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プレイヤーがカート所持時にカートに接触した場合馬にのる</t>
+    <rPh sb="9" eb="11">
+      <t>ショジ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>セッショク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ウマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>馬が乗ってからの動きはマスター版プレイヤーの仕様書を参考にしてください</t>
+    <rPh sb="0" eb="1">
+      <t>ウマ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>シヨウショ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>サンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トナカイ（闘牛）はｒｙ</t>
     <rPh sb="5" eb="7">
       <t>トウギュウ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>アライグマ（ニワトリ）</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>馬の仕様（新動物）</t>
-    <rPh sb="0" eb="1">
-      <t>ウマ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アライグマ（ニワトリ）はｒｙ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>鮫の動き自体は闘牛と同じ</t>
+    <rPh sb="0" eb="1">
+      <t>サメ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジタイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウギュウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>動きの違い</t>
+    <rPh sb="0" eb="1">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>チガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鮫はカートとぶつかったときカートを壊す</t>
+    <rPh sb="0" eb="1">
+      <t>サメ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>コワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鮫の仕様（新動物）</t>
+    <rPh sb="0" eb="1">
+      <t>サメ</t>
     </rPh>
     <rPh sb="2" eb="4">
       <t>シヨウ</t>
@@ -79,89 +236,20 @@
     <rPh sb="6" eb="8">
       <t>ドウブツ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>馬は乱入系の登場の仕方をする</t>
-    <rPh sb="0" eb="1">
-      <t>ウマ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ランニュウ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ケイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>トウジョウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>シカタ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>馬は店の中に入りプレイヤーと接触していない状態では豚や牛と同じ動きになる</t>
-    <rPh sb="0" eb="1">
-      <t>ウマ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ミセ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ハイ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>セッショク</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>ブタ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>ウシ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>ウゴ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>プレイヤーのカートに接触した場合</t>
-    <rPh sb="10" eb="12">
-      <t>セッショク</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Yu Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
     <font>
       <sz val="6"/>
@@ -175,6 +263,31 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -197,12 +310,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -526,69 +645,119 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A29"/>
+  <dimension ref="A1:A28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" ht="19.5">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="19.5">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="19.5">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="19.5">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="5" spans="1:1" ht="19.5">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="19.5">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="3"/>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="4"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="4"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="4"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="1" t="s">
+    <row r="13" spans="1:1">
+      <c r="A13" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="1"/>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="1" t="s">
+    <row r="14" spans="1:1">
+      <c r="A14" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
+    <row r="15" spans="1:1">
+      <c r="A15" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
-        <v>0</v>
-      </c>
+    <row r="16" spans="1:1">
+      <c r="A16" s="4"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="4"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="4"/>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="4"/>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="4"/>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:A3 A5:A7">
     <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
       <formula>$D1="未着手"</formula>
